--- a/biology/Botanique/Oryza/Oryza.xlsx
+++ b/biology/Botanique/Oryza/Oryza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oryza est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oryza est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae,. 
 Ce genre comprend une vingtaine d'espèces acceptées, dont les deux espèces de riz cultivé, Oryza sativa et Oryza glaberrima, qui figurent parmi les principales plantes alimentaires. 
 Les espèces du genre Oryza sont des graminées poussant dans les zones humides, qui peuvent atteindre 1 à 2 mètres de haut.
-Le genre comprend des espèces annuelles et vivaces[4].
-Plusieurs espèces de riz sauvage (non cultivées), notamment Oryza perennis, Oryza nivara, Oryza rufipogon, Oryza latifolia, Oryza punctata, très proches biologiquement des riz cultivés, se comportent parfois dans les rizières comme des mauvaises herbes difficiles à extirper et sont considérées comme nuisibles[5].
+Le genre comprend des espèces annuelles et vivaces.
+Plusieurs espèces de riz sauvage (non cultivées), notamment Oryza perennis, Oryza nivara, Oryza rufipogon, Oryza latifolia, Oryza punctata, très proches biologiquement des riz cultivés, se comportent parfois dans les rizières comme des mauvaises herbes difficiles à extirper et sont considérées comme nuisibles.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot oryza est une déclinaison (notamment le nominatif singulier[a]) d'un nom latin féminin signifiant « riz ». Ce nom est une transcription du mot grec ὄρυζα / oryza (de même sens), lui-même issu du sanskrit via le persan.
 </t>
@@ -546,17 +560,19 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre oryza regroupent des plantes herbacées, annuelles ou vivaces, poussant en touffes. Les tiges (chaumes) sont dressées ou ascendantes. 
-Les feuilles, principalement caulinaires, ont un limbe linéaire, plat, relativement large, et une ligule membraneuse[6]. 
+Les feuilles, principalement caulinaires, ont un limbe linéaire, plat, relativement large, et une ligule membraneuse. 
 L'inflorescence est une panicule rameuse, souvent penchée, généralement composée de multiples rameaux spiciformes, les ramifications inférieures habituellement verticillées, faiblement ou non ramifiées. 
 Les épillets, portés par un pédicelle court, sont fortement comprimés latéralement. Ils se désarticulent à maturité sous les lemmes stériles, et sont persistants chez les variétés cultivées.
 Ils comptent trois fleurons, dont seul le fleuron supérieur est fertile. Les fleurons stériles se réduisent à deux lemmes étroites à la base du fleuron fertile. 
 Les glumes, à l'état de vestiges, subsistent après la désarticulation comme une collerette lobée, peu profonde, à l'apex du pédicelle.
 Toutefois, les écailles étroites situées à la base du fleuron fertile sont parfois considérées comme des glumes plutôt que des lemmes stériles, et la collerette à l'apex du pédicelle tout simplement comme un tissu de ce dernier.
 La lemme fertile carénée, scarieuse, étroitement papillée, parfois couverte de fines épines, rarement lisse, présente cinq  nervures très visibles et un apex non aristé ou portant une arête droite. La paléole, semblable à la lemme, mais plus étroite, présente  trois nervures et un apex se terminant en bec. Les fleurons fertiles présentent six étamines. 
-Le fruit est un caryopse de forme variable, avec un embryon dont la longueur est 25 % de celle du caryopse, et un hile linéaire aussi long que le caryopse[6].
+Le fruit est un caryopse de forme variable, avec un embryon dont la longueur est 25 % de celle du caryopse, et un hile linéaire aussi long que le caryopse.
 </t>
         </is>
       </c>
@@ -587,13 +603,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon GRIN            (5 mars 2015)[7] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (5 mars 2015) :
 Padia Moritzi ;
-Porteresia Tateoka.
-Liste d'espèces
-Plus de 300 noms ont été proposés comme espèces, sous-espèces et autres taxons infraspécifiques au sein du genre Oryza. Le nombre d'espèces distinctes acceptées varie selon les auteurs. Selon Kew World Checklist, seules  les 19 espèces listées ci-dessous doivent être retenues comme distinctes[8].
-Selon World Checklist of Selected Plant Families (WCSP)  (22 avril 2017)[9] :
+Porteresia Tateoka.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oryza</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oryza</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 300 noms ont été proposés comme espèces, sous-espèces et autres taxons infraspécifiques au sein du genre Oryza. Le nombre d'espèces distinctes acceptées varie selon les auteurs. Selon Kew World Checklist, seules  les 19 espèces listées ci-dessous doivent être retenues comme distinctes.
+Selon World Checklist of Selected Plant Families (WCSP)  (22 avril 2017) :
 Oryza australiensis Domin (1915)
 Oryza barthii A.Chev. (1910)
 Oryza brachyantha A.Chev. &amp; Roehr. (1914)
@@ -617,38 +672,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Oryza</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oryza</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Génome</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a déterminé chez les espèces du genre Oryza dix types de génomes (parfois 11), dont six génomes diploïdes (AA, BB, CC, EE, FF et GG) et quatre ou cinq génomes allotétraploïdes (BBCC, CCDD, HHKK, HHJJ[10] et KKLL[11]. La répartition des espèces entre ces différents types de génomes est présentée ci-après[12].
-La plupart des espèces du genre Oryza ont été groupées en complexes d'espèces, en nombre variable selon les auteurs. La section Oryza sativa se subdivise en deux complexes, le complexe Oryza sativa, qui comprend sept espèces morphologiques partageant toutes le génome diploïde AA, et le complexe Oryza officinalis, qui regroupe des espèces ayant quatre génomes différents, BB, CC, DD et EE, avec à la fois des espèces diploïdes et des espèces tétraploïdes[13]. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -670,10 +693,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Génome</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a déterminé chez les espèces du genre Oryza dix types de génomes (parfois 11), dont six génomes diploïdes (AA, BB, CC, EE, FF et GG) et quatre ou cinq génomes allotétraploïdes (BBCC, CCDD, HHKK, HHJJ et KKLL. La répartition des espèces entre ces différents types de génomes est présentée ci-après.
+La plupart des espèces du genre Oryza ont été groupées en complexes d'espèces, en nombre variable selon les auteurs. La section Oryza sativa se subdivise en deux complexes, le complexe Oryza sativa, qui comprend sept espèces morphologiques partageant toutes le génome diploïde AA, et le complexe Oryza officinalis, qui regroupe des espèces ayant quatre génomes différents, BB, CC, DD et EE, avec à la fois des espèces diploïdes et des espèces tétraploïdes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oryza</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oryza</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
